--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2009,10 +2021,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2056,28 +2068,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2102,28 +2114,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2240,10 +2252,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2287,28 +2299,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2333,28 +2345,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2760,10 +2772,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2807,28 +2819,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2853,28 +2865,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3338,10 +3350,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3385,28 +3397,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3431,28 +3443,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4015,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4062,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4108,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4292,10 +4304,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4339,28 +4351,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4385,28 +4397,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4622,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4669,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4715,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4882,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4917,28 +4929,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4975,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5188,10 +5200,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5235,28 +5247,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5281,28 +5293,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5489,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5536,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5582,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5922,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5969,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
